--- a/Result.xlsx
+++ b/Result.xlsx
@@ -14,9 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello World!</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>T/b</t>
+  </si>
+  <si>
+    <t>Kod</t>
+  </si>
+  <si>
+    <t>Synpy</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Point</t>
   </si>
 </sst>
 </file>
@@ -326,15 +341,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
